--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.949617</v>
+        <v>1.31807</v>
       </c>
       <c r="H2">
-        <v>5.848851</v>
+        <v>3.95421</v>
       </c>
       <c r="I2">
-        <v>0.04614692348379677</v>
+        <v>0.04859684701745225</v>
       </c>
       <c r="J2">
-        <v>0.06194431783080363</v>
+        <v>0.06229805803601952</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.048521666666667</v>
+        <v>0.9393920000000001</v>
       </c>
       <c r="N2">
-        <v>3.145565</v>
+        <v>2.818176</v>
       </c>
       <c r="O2">
-        <v>0.1554155979440307</v>
+        <v>0.1253824777629622</v>
       </c>
       <c r="P2">
-        <v>0.1656763860066786</v>
+        <v>0.1374851382139396</v>
       </c>
       <c r="Q2">
-        <v>2.044215666201667</v>
+        <v>1.23818441344</v>
       </c>
       <c r="R2">
-        <v>18.397940995815</v>
+        <v>11.14365972096</v>
       </c>
       <c r="S2">
-        <v>0.007171951706511708</v>
+        <v>0.00609319309051578</v>
       </c>
       <c r="T2">
-        <v>0.0102627107118566</v>
+        <v>0.008565057119542174</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.949617</v>
+        <v>1.31807</v>
       </c>
       <c r="H3">
-        <v>5.848851</v>
+        <v>3.95421</v>
       </c>
       <c r="I3">
-        <v>0.04614692348379677</v>
+        <v>0.04859684701745225</v>
       </c>
       <c r="J3">
-        <v>0.06194431783080363</v>
+        <v>0.06229805803601952</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.809982</v>
       </c>
       <c r="O3">
-        <v>0.3364665567292637</v>
+        <v>0.302980515298254</v>
       </c>
       <c r="P3">
-        <v>0.3586806206613224</v>
+        <v>0.3322259917423329</v>
       </c>
       <c r="Q3">
-        <v>4.425618892298</v>
+        <v>2.99201099158</v>
       </c>
       <c r="R3">
-        <v>39.830570030682</v>
+        <v>26.92809892422</v>
       </c>
       <c r="S3">
-        <v>0.0155268964482419</v>
+        <v>0.0147238977512181</v>
       </c>
       <c r="T3">
-        <v>0.02221822636599486</v>
+        <v>0.020697034114638</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.949617</v>
+        <v>1.31807</v>
       </c>
       <c r="H4">
-        <v>5.848851</v>
+        <v>3.95421</v>
       </c>
       <c r="I4">
-        <v>0.04614692348379677</v>
+        <v>0.04859684701745225</v>
       </c>
       <c r="J4">
-        <v>0.06194431783080363</v>
+        <v>0.06229805803601952</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.119509</v>
+        <v>1.268187</v>
       </c>
       <c r="N4">
-        <v>3.358527</v>
+        <v>3.804561</v>
       </c>
       <c r="O4">
-        <v>0.165937592107037</v>
+        <v>0.1692673860611733</v>
       </c>
       <c r="P4">
-        <v>0.1768930591692914</v>
+        <v>0.1856060781613229</v>
       </c>
       <c r="Q4">
-        <v>2.182613778053</v>
+        <v>1.67155923909</v>
       </c>
       <c r="R4">
-        <v>19.643524002477</v>
+        <v>15.04403315181</v>
       </c>
       <c r="S4">
-        <v>0.007657509366048912</v>
+        <v>0.008225861265458866</v>
       </c>
       <c r="T4">
-        <v>0.01095751987924574</v>
+        <v>0.01156289822913207</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.949617</v>
+        <v>1.31807</v>
       </c>
       <c r="H5">
-        <v>5.848851</v>
+        <v>3.95421</v>
       </c>
       <c r="I5">
-        <v>0.04614692348379677</v>
+        <v>0.04859684701745225</v>
       </c>
       <c r="J5">
-        <v>0.06194431783080363</v>
+        <v>0.06229805803601952</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.2534995</v>
+        <v>1.9785925</v>
       </c>
       <c r="N5">
-        <v>2.506999</v>
+        <v>3.957185</v>
       </c>
       <c r="O5">
-        <v>0.185798138949642</v>
+        <v>0.2640865901915427</v>
       </c>
       <c r="P5">
-        <v>0.1320432208656814</v>
+        <v>0.1930518628585044</v>
       </c>
       <c r="Q5">
-        <v>2.4438439346915</v>
+        <v>2.607923416475</v>
       </c>
       <c r="R5">
-        <v>14.663063608149</v>
+        <v>15.64754049885</v>
       </c>
       <c r="S5">
-        <v>0.008574012501540967</v>
+        <v>0.01283377562289901</v>
       </c>
       <c r="T5">
-        <v>0.008179327240706769</v>
+        <v>0.01202675615632079</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.949617</v>
+        <v>1.31807</v>
       </c>
       <c r="H6">
-        <v>5.848851</v>
+        <v>3.95421</v>
       </c>
       <c r="I6">
-        <v>0.04614692348379677</v>
+        <v>0.04859684701745225</v>
       </c>
       <c r="J6">
-        <v>0.06194431783080363</v>
+        <v>0.06229805803601952</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.055042333333333</v>
+        <v>1.036045666666667</v>
       </c>
       <c r="N6">
-        <v>3.165127</v>
+        <v>3.108137</v>
       </c>
       <c r="O6">
-        <v>0.1563821142700266</v>
+        <v>0.1382830306860678</v>
       </c>
       <c r="P6">
-        <v>0.1667067132970263</v>
+        <v>0.1516309290239004</v>
       </c>
       <c r="Q6">
-        <v>2.056928468786333</v>
+        <v>1.365580711863333</v>
       </c>
       <c r="R6">
-        <v>18.512356219077</v>
+        <v>12.29022640677</v>
       </c>
       <c r="S6">
-        <v>0.007216553461453279</v>
+        <v>0.006720119287360492</v>
       </c>
       <c r="T6">
-        <v>0.01032653363299965</v>
+        <v>0.009446312416386505</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>23.315851</v>
       </c>
       <c r="I7">
-        <v>0.183960027714265</v>
+        <v>0.286549486276326</v>
       </c>
       <c r="J7">
-        <v>0.2469347372397862</v>
+        <v>0.3673381633138311</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.048521666666667</v>
+        <v>0.9393920000000001</v>
       </c>
       <c r="N7">
-        <v>3.145565</v>
+        <v>2.818176</v>
       </c>
       <c r="O7">
-        <v>0.1554155979440307</v>
+        <v>0.1253824777629622</v>
       </c>
       <c r="P7">
-        <v>0.1656763860066786</v>
+        <v>0.1374851382139396</v>
       </c>
       <c r="Q7">
-        <v>8.149058316757223</v>
+        <v>7.300907967530668</v>
       </c>
       <c r="R7">
-        <v>73.34152485081502</v>
+        <v>65.70817170777602</v>
       </c>
       <c r="S7">
-        <v>0.02859025770501296</v>
+        <v>0.03592828459102968</v>
       </c>
       <c r="T7">
-        <v>0.04091125484539656</v>
+        <v>0.05050353815445678</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>23.315851</v>
       </c>
       <c r="I8">
-        <v>0.183960027714265</v>
+        <v>0.286549486276326</v>
       </c>
       <c r="J8">
-        <v>0.2469347372397862</v>
+        <v>0.3673381633138311</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>6.809982</v>
       </c>
       <c r="O8">
-        <v>0.3364665567292637</v>
+        <v>0.302980515298254</v>
       </c>
       <c r="P8">
-        <v>0.3586806206613224</v>
+        <v>0.3322259917423329</v>
       </c>
       <c r="Q8">
         <v>17.64228062496467</v>
@@ -948,10 +948,10 @@
         <v>158.780525624682</v>
       </c>
       <c r="S8">
-        <v>0.06189639710083866</v>
+        <v>0.08681891101045124</v>
       </c>
       <c r="T8">
-        <v>0.08857070481600708</v>
+        <v>0.1220392856117446</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>23.315851</v>
       </c>
       <c r="I9">
-        <v>0.183960027714265</v>
+        <v>0.286549486276326</v>
       </c>
       <c r="J9">
-        <v>0.2469347372397862</v>
+        <v>0.3673381633138311</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.119509</v>
+        <v>1.268187</v>
       </c>
       <c r="N9">
-        <v>3.358527</v>
+        <v>3.804561</v>
       </c>
       <c r="O9">
-        <v>0.165937592107037</v>
+        <v>0.1692673860611733</v>
       </c>
       <c r="P9">
-        <v>0.1768930591692914</v>
+        <v>0.1856060781613229</v>
       </c>
       <c r="Q9">
-        <v>8.700768345719668</v>
+        <v>9.856286377379</v>
       </c>
       <c r="R9">
-        <v>78.30691511147701</v>
+        <v>88.70657739641101</v>
       </c>
       <c r="S9">
-        <v>0.03052588404284892</v>
+        <v>0.04850348251916575</v>
       </c>
       <c r="T9">
-        <v>0.04368104108551092</v>
+        <v>0.06818019585166371</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>23.315851</v>
       </c>
       <c r="I10">
-        <v>0.183960027714265</v>
+        <v>0.286549486276326</v>
       </c>
       <c r="J10">
-        <v>0.2469347372397862</v>
+        <v>0.3673381633138311</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.2534995</v>
+        <v>1.9785925</v>
       </c>
       <c r="N10">
-        <v>2.506999</v>
+        <v>3.957185</v>
       </c>
       <c r="O10">
-        <v>0.185798138949642</v>
+        <v>0.2640865901915427</v>
       </c>
       <c r="P10">
-        <v>0.1320432208656814</v>
+        <v>0.1930518628585044</v>
       </c>
       <c r="Q10">
-        <v>9.742135856858168</v>
+        <v>15.37752263990583</v>
       </c>
       <c r="R10">
-        <v>58.452815141149</v>
+        <v>92.265135839435</v>
       </c>
       <c r="S10">
-        <v>0.03417943079043499</v>
+        <v>0.07567387675185319</v>
       </c>
       <c r="T10">
-        <v>0.03260605804876208</v>
+        <v>0.07091531672675661</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>23.315851</v>
       </c>
       <c r="I11">
-        <v>0.183960027714265</v>
+        <v>0.286549486276326</v>
       </c>
       <c r="J11">
-        <v>0.2469347372397862</v>
+        <v>0.3673381633138311</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.055042333333333</v>
+        <v>1.036045666666667</v>
       </c>
       <c r="N11">
-        <v>3.165127</v>
+        <v>3.108137</v>
       </c>
       <c r="O11">
-        <v>0.1563821142700266</v>
+        <v>0.1382830306860678</v>
       </c>
       <c r="P11">
-        <v>0.1667067132970263</v>
+        <v>0.1516309290239004</v>
       </c>
       <c r="Q11">
-        <v>8.19973661423078</v>
+        <v>8.052095464398557</v>
       </c>
       <c r="R11">
-        <v>73.79762952807701</v>
+        <v>72.46885917958701</v>
       </c>
       <c r="S11">
-        <v>0.02876805807512944</v>
+        <v>0.03962493140382616</v>
       </c>
       <c r="T11">
-        <v>0.04116567844410956</v>
+        <v>0.05569982696920946</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1542573333333333</v>
+        <v>0.1089536666666667</v>
       </c>
       <c r="H12">
-        <v>0.462772</v>
+        <v>0.326861</v>
       </c>
       <c r="I12">
-        <v>0.003651230656148292</v>
+        <v>0.004017089131070798</v>
       </c>
       <c r="J12">
-        <v>0.004901149961111448</v>
+        <v>0.005149652028524378</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.048521666666667</v>
+        <v>0.9393920000000001</v>
       </c>
       <c r="N12">
-        <v>3.145565</v>
+        <v>2.818176</v>
       </c>
       <c r="O12">
-        <v>0.1554155979440307</v>
+        <v>0.1253824777629622</v>
       </c>
       <c r="P12">
-        <v>0.1656763860066786</v>
+        <v>0.1374851382139396</v>
       </c>
       <c r="Q12">
-        <v>0.1617421562422222</v>
+        <v>0.1023502028373334</v>
       </c>
       <c r="R12">
-        <v>1.45567940618</v>
+        <v>0.9211518255360002</v>
       </c>
       <c r="S12">
-        <v>0.0005674581956568625</v>
+        <v>0.0005036725886483213</v>
       </c>
       <c r="T12">
-        <v>0.0008120048128337178</v>
+        <v>0.0007080006208953684</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1542573333333333</v>
+        <v>0.1089536666666667</v>
       </c>
       <c r="H13">
-        <v>0.462772</v>
+        <v>0.326861</v>
       </c>
       <c r="I13">
-        <v>0.003651230656148292</v>
+        <v>0.004017089131070798</v>
       </c>
       <c r="J13">
-        <v>0.004901149961111448</v>
+        <v>0.005149652028524378</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>6.809982</v>
       </c>
       <c r="O13">
-        <v>0.3364665567292637</v>
+        <v>0.302980515298254</v>
       </c>
       <c r="P13">
-        <v>0.3586806206613224</v>
+        <v>0.3322259917423329</v>
       </c>
       <c r="Q13">
-        <v>0.3501632211226667</v>
+        <v>0.2473241696113334</v>
       </c>
       <c r="R13">
-        <v>3.151468990104</v>
+        <v>2.225917526502</v>
       </c>
       <c r="S13">
-        <v>0.001228517006698546</v>
+        <v>0.001217099734930846</v>
       </c>
       <c r="T13">
-        <v>0.00175794751000567</v>
+        <v>0.001710848252304427</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1542573333333333</v>
+        <v>0.1089536666666667</v>
       </c>
       <c r="H14">
-        <v>0.462772</v>
+        <v>0.326861</v>
       </c>
       <c r="I14">
-        <v>0.003651230656148292</v>
+        <v>0.004017089131070798</v>
       </c>
       <c r="J14">
-        <v>0.004901149961111448</v>
+        <v>0.005149652028524378</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.119509</v>
+        <v>1.268187</v>
       </c>
       <c r="N14">
-        <v>3.358527</v>
+        <v>3.804561</v>
       </c>
       <c r="O14">
-        <v>0.165937592107037</v>
+        <v>0.1692673860611733</v>
       </c>
       <c r="P14">
-        <v>0.1768930591692914</v>
+        <v>0.1856060781613229</v>
       </c>
       <c r="Q14">
-        <v>0.1726924729826667</v>
+        <v>0.138173623669</v>
       </c>
       <c r="R14">
-        <v>1.554232256844</v>
+        <v>1.243562613021</v>
       </c>
       <c r="S14">
-        <v>0.0006058764233086443</v>
+        <v>0.0006799621767911038</v>
       </c>
       <c r="T14">
-        <v>0.0008669794100684575</v>
+        <v>0.0009558067169099104</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1542573333333333</v>
+        <v>0.1089536666666667</v>
       </c>
       <c r="H15">
-        <v>0.462772</v>
+        <v>0.326861</v>
       </c>
       <c r="I15">
-        <v>0.003651230656148292</v>
+        <v>0.004017089131070798</v>
       </c>
       <c r="J15">
-        <v>0.004901149961111448</v>
+        <v>0.005149652028524378</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.2534995</v>
+        <v>1.9785925</v>
       </c>
       <c r="N15">
-        <v>2.506999</v>
+        <v>3.957185</v>
       </c>
       <c r="O15">
-        <v>0.185798138949642</v>
+        <v>0.2640865901915427</v>
       </c>
       <c r="P15">
-        <v>0.1320432208656814</v>
+        <v>0.1930518628585044</v>
       </c>
       <c r="Q15">
-        <v>0.1933614902046667</v>
+        <v>0.2155749077141667</v>
       </c>
       <c r="R15">
-        <v>1.160168941228</v>
+        <v>1.293449446285</v>
       </c>
       <c r="S15">
-        <v>0.0006783918607882329</v>
+        <v>0.001060859371119994</v>
       </c>
       <c r="T15">
-        <v>0.0006471636268108646</v>
+        <v>0.0009941499171797071</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1542573333333333</v>
+        <v>0.1089536666666667</v>
       </c>
       <c r="H16">
-        <v>0.462772</v>
+        <v>0.326861</v>
       </c>
       <c r="I16">
-        <v>0.003651230656148292</v>
+        <v>0.004017089131070798</v>
       </c>
       <c r="J16">
-        <v>0.004901149961111448</v>
+        <v>0.005149652028524378</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.055042333333333</v>
+        <v>1.036045666666667</v>
       </c>
       <c r="N16">
-        <v>3.165127</v>
+        <v>3.108137</v>
       </c>
       <c r="O16">
-        <v>0.1563821142700266</v>
+        <v>0.1382830306860678</v>
       </c>
       <c r="P16">
-        <v>0.1667067132970263</v>
+        <v>0.1516309290239004</v>
       </c>
       <c r="Q16">
-        <v>0.1627480168937778</v>
+        <v>0.1128809742174444</v>
       </c>
       <c r="R16">
-        <v>1.464732152044</v>
+        <v>1.015928767957</v>
       </c>
       <c r="S16">
-        <v>0.0005709871696960064</v>
+        <v>0.0005554952595805327</v>
       </c>
       <c r="T16">
-        <v>0.0008170546013927376</v>
+        <v>0.0007808465212349647</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>32.3230095</v>
+        <v>17.8951805</v>
       </c>
       <c r="H17">
-        <v>64.646019</v>
+        <v>35.790361</v>
       </c>
       <c r="I17">
-        <v>0.7650771644700144</v>
+        <v>0.6597899573681176</v>
       </c>
       <c r="J17">
-        <v>0.6846564474684292</v>
+        <v>0.5638724262768265</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.048521666666667</v>
+        <v>0.9393920000000001</v>
       </c>
       <c r="N17">
-        <v>3.145565</v>
+        <v>2.818176</v>
       </c>
       <c r="O17">
-        <v>0.1554155979440307</v>
+        <v>0.1253824777629622</v>
       </c>
       <c r="P17">
-        <v>0.1656763860066786</v>
+        <v>0.1374851382139396</v>
       </c>
       <c r="Q17">
-        <v>33.8913757926225</v>
+        <v>16.810589400256</v>
       </c>
       <c r="R17">
-        <v>203.348254755735</v>
+        <v>100.863536401536</v>
       </c>
       <c r="S17">
-        <v>0.1189049249894308</v>
+        <v>0.08272609965793376</v>
       </c>
       <c r="T17">
-        <v>0.1134314058727407</v>
+        <v>0.07752407846169897</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>32.3230095</v>
+        <v>17.8951805</v>
       </c>
       <c r="H18">
-        <v>64.646019</v>
+        <v>35.790361</v>
       </c>
       <c r="I18">
-        <v>0.7650771644700144</v>
+        <v>0.6597899573681176</v>
       </c>
       <c r="J18">
-        <v>0.6846564474684292</v>
+        <v>0.5638724262768265</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>6.809982</v>
       </c>
       <c r="O18">
-        <v>0.3364665567292637</v>
+        <v>0.302980515298254</v>
       </c>
       <c r="P18">
-        <v>0.3586806206613224</v>
+        <v>0.3322259917423329</v>
       </c>
       <c r="Q18">
-        <v>73.373037626943</v>
+        <v>40.621952363917</v>
       </c>
       <c r="R18">
-        <v>440.2382257616579</v>
+        <v>243.731714183502</v>
       </c>
       <c r="S18">
-        <v>0.2574228791614143</v>
+        <v>0.1999035012720053</v>
       </c>
       <c r="T18">
-        <v>0.2455729995177523</v>
+        <v>0.1873330760359742</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>32.3230095</v>
+        <v>17.8951805</v>
       </c>
       <c r="H19">
-        <v>64.646019</v>
+        <v>35.790361</v>
       </c>
       <c r="I19">
-        <v>0.7650771644700144</v>
+        <v>0.6597899573681176</v>
       </c>
       <c r="J19">
-        <v>0.6846564474684292</v>
+        <v>0.5638724262768265</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.119509</v>
+        <v>1.268187</v>
       </c>
       <c r="N19">
-        <v>3.358527</v>
+        <v>3.804561</v>
       </c>
       <c r="O19">
-        <v>0.165937592107037</v>
+        <v>0.1692673860611733</v>
       </c>
       <c r="P19">
-        <v>0.1768930591692914</v>
+        <v>0.1856060781613229</v>
       </c>
       <c r="Q19">
-        <v>36.1859000423355</v>
+        <v>22.6944352727535</v>
       </c>
       <c r="R19">
-        <v>217.115400254013</v>
+        <v>136.166611636521</v>
       </c>
       <c r="S19">
-        <v>0.1269550624482337</v>
+        <v>0.1116809214331142</v>
       </c>
       <c r="T19">
-        <v>0.1211109734726697</v>
+        <v>0.1046581496245514</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>32.3230095</v>
+        <v>17.8951805</v>
       </c>
       <c r="H20">
-        <v>64.646019</v>
+        <v>35.790361</v>
       </c>
       <c r="I20">
-        <v>0.7650771644700144</v>
+        <v>0.6597899573681176</v>
       </c>
       <c r="J20">
-        <v>0.6846564474684292</v>
+        <v>0.5638724262768265</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.2534995</v>
+        <v>1.9785925</v>
       </c>
       <c r="N20">
-        <v>2.506999</v>
+        <v>3.957185</v>
       </c>
       <c r="O20">
-        <v>0.185798138949642</v>
+        <v>0.2640865901915427</v>
       </c>
       <c r="P20">
-        <v>0.1320432208656814</v>
+        <v>0.1930518628585044</v>
       </c>
       <c r="Q20">
-        <v>40.51687624674525</v>
+        <v>35.40726992344625</v>
       </c>
       <c r="R20">
-        <v>162.067504986981</v>
+        <v>141.629079693785</v>
       </c>
       <c r="S20">
-        <v>0.1421499133113978</v>
+        <v>0.1742416800839695</v>
       </c>
       <c r="T20">
-        <v>0.09040424251018658</v>
+        <v>0.108856622307286</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>32.3230095</v>
+        <v>17.8951805</v>
       </c>
       <c r="H21">
-        <v>64.646019</v>
+        <v>35.790361</v>
       </c>
       <c r="I21">
-        <v>0.7650771644700144</v>
+        <v>0.6597899573681176</v>
       </c>
       <c r="J21">
-        <v>0.6846564474684292</v>
+        <v>0.5638724262768265</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.055042333333333</v>
+        <v>1.036045666666667</v>
       </c>
       <c r="N21">
-        <v>3.165127</v>
+        <v>3.108137</v>
       </c>
       <c r="O21">
-        <v>0.1563821142700266</v>
+        <v>0.1382830306860678</v>
       </c>
       <c r="P21">
-        <v>0.1667067132970263</v>
+        <v>0.1516309290239004</v>
       </c>
       <c r="Q21">
-        <v>34.1021433632355</v>
+        <v>18.54022421124284</v>
       </c>
       <c r="R21">
-        <v>204.612860179413</v>
+        <v>111.241345267457</v>
       </c>
       <c r="S21">
-        <v>0.1196443845595377</v>
+        <v>0.09123775492109479</v>
       </c>
       <c r="T21">
-        <v>0.11413682609508</v>
+        <v>0.085500499847316</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.04920433333333334</v>
+        <v>0.028387</v>
       </c>
       <c r="H22">
-        <v>0.147613</v>
+        <v>0.085161</v>
       </c>
       <c r="I22">
-        <v>0.001164653675775583</v>
+        <v>0.001046620207033327</v>
       </c>
       <c r="J22">
-        <v>0.001563347499869362</v>
+        <v>0.001341700344798445</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.048521666666667</v>
+        <v>0.9393920000000001</v>
       </c>
       <c r="N22">
-        <v>3.145565</v>
+        <v>2.818176</v>
       </c>
       <c r="O22">
-        <v>0.1554155979440307</v>
+        <v>0.1253824777629622</v>
       </c>
       <c r="P22">
-        <v>0.1656763860066786</v>
+        <v>0.1374851382139396</v>
       </c>
       <c r="Q22">
-        <v>0.05159180959388891</v>
+        <v>0.026666520704</v>
       </c>
       <c r="R22">
-        <v>0.4643262863450001</v>
+        <v>0.239998686336</v>
       </c>
       <c r="S22">
-        <v>0.0001810053474183755</v>
+        <v>0.0001312278348346229</v>
       </c>
       <c r="T22">
-        <v>0.0002590097638509323</v>
+        <v>0.0001844638573463046</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.04920433333333334</v>
+        <v>0.028387</v>
       </c>
       <c r="H23">
-        <v>0.147613</v>
+        <v>0.085161</v>
       </c>
       <c r="I23">
-        <v>0.001164653675775583</v>
+        <v>0.001046620207033327</v>
       </c>
       <c r="J23">
-        <v>0.001563347499869362</v>
+        <v>0.001341700344798445</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>6.809982</v>
       </c>
       <c r="O23">
-        <v>0.3364665567292637</v>
+        <v>0.302980515298254</v>
       </c>
       <c r="P23">
-        <v>0.3586806206613224</v>
+        <v>0.3322259917423329</v>
       </c>
       <c r="Q23">
-        <v>0.1116935414406667</v>
+        <v>0.064438319678</v>
       </c>
       <c r="R23">
-        <v>1.005241872966</v>
+        <v>0.5799448771019999</v>
       </c>
       <c r="S23">
-        <v>0.0003918670120702906</v>
+        <v>0.0003171055296485227</v>
       </c>
       <c r="T23">
-        <v>0.0005607424515624693</v>
+        <v>0.0004457477276716933</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.04920433333333334</v>
+        <v>0.028387</v>
       </c>
       <c r="H24">
-        <v>0.147613</v>
+        <v>0.085161</v>
       </c>
       <c r="I24">
-        <v>0.001164653675775583</v>
+        <v>0.001046620207033327</v>
       </c>
       <c r="J24">
-        <v>0.001563347499869362</v>
+        <v>0.001341700344798445</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.119509</v>
+        <v>1.268187</v>
       </c>
       <c r="N24">
-        <v>3.358527</v>
+        <v>3.804561</v>
       </c>
       <c r="O24">
-        <v>0.165937592107037</v>
+        <v>0.1692673860611733</v>
       </c>
       <c r="P24">
-        <v>0.1768930591692914</v>
+        <v>0.1856060781613229</v>
       </c>
       <c r="Q24">
-        <v>0.05508469400566668</v>
+        <v>0.036000024369</v>
       </c>
       <c r="R24">
-        <v>0.4957622460510001</v>
+        <v>0.324000219321</v>
       </c>
       <c r="S24">
-        <v>0.0001932598265968099</v>
+        <v>0.0001771586666433352</v>
       </c>
       <c r="T24">
-        <v>0.0002765453217965548</v>
+        <v>0.000249027739065734</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.04920433333333334</v>
+        <v>0.028387</v>
       </c>
       <c r="H25">
-        <v>0.147613</v>
+        <v>0.085161</v>
       </c>
       <c r="I25">
-        <v>0.001164653675775583</v>
+        <v>0.001046620207033327</v>
       </c>
       <c r="J25">
-        <v>0.001563347499869362</v>
+        <v>0.001341700344798445</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.2534995</v>
+        <v>1.9785925</v>
       </c>
       <c r="N25">
-        <v>2.506999</v>
+        <v>3.957185</v>
       </c>
       <c r="O25">
-        <v>0.185798138949642</v>
+        <v>0.2640865901915427</v>
       </c>
       <c r="P25">
-        <v>0.1320432208656814</v>
+        <v>0.1930518628585044</v>
       </c>
       <c r="Q25">
-        <v>0.06167760723116668</v>
+        <v>0.0561663052975</v>
       </c>
       <c r="R25">
-        <v>0.370065643387</v>
+        <v>0.336997831785</v>
       </c>
       <c r="S25">
-        <v>0.000216390485479963</v>
+        <v>0.0002763983617009977</v>
       </c>
       <c r="T25">
-        <v>0.0002064294392150609</v>
+        <v>0.0002590177509612375</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.04920433333333334</v>
+        <v>0.028387</v>
       </c>
       <c r="H26">
-        <v>0.147613</v>
+        <v>0.085161</v>
       </c>
       <c r="I26">
-        <v>0.001164653675775583</v>
+        <v>0.001046620207033327</v>
       </c>
       <c r="J26">
-        <v>0.001563347499869362</v>
+        <v>0.001341700344798445</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.055042333333333</v>
+        <v>1.036045666666667</v>
       </c>
       <c r="N26">
-        <v>3.165127</v>
+        <v>3.108137</v>
       </c>
       <c r="O26">
-        <v>0.1563821142700266</v>
+        <v>0.1382830306860678</v>
       </c>
       <c r="P26">
-        <v>0.1667067132970263</v>
+        <v>0.1516309290239004</v>
       </c>
       <c r="Q26">
-        <v>0.05191265465011113</v>
+        <v>0.02941022833966667</v>
       </c>
       <c r="R26">
-        <v>0.4672138918510001</v>
+        <v>0.264692055057</v>
       </c>
       <c r="S26">
-        <v>0.0001821310042101437</v>
+        <v>0.0001447298142058482</v>
       </c>
       <c r="T26">
-        <v>0.0002606205234443445</v>
+        <v>0.0002034432697534757</v>
       </c>
     </row>
   </sheetData>
